--- a/exports/employees_with_documents.xlsx
+++ b/exports/employees_with_documents.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
   <si>
     <t>ID</t>
   </si>
@@ -44,139 +44,367 @@
     <t>File URL(s)</t>
   </si>
   <si>
-    <t>fgh</t>
-  </si>
-  <si>
-    <t>bnm</t>
-  </si>
-  <si>
-    <t>h@ghj.com</t>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>john.doe@example.com</t>
+  </si>
+  <si>
+    <t>123 Street, City</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Screenshot 2025-03-03 044858.png</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/uploads/3870dbd3-cea3-441f-acf9-6786e57e50c6_Screenshot 2025-03-03 044858.png</t>
+  </si>
+  <si>
+    <t>Screenshot (1283).png</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/uploads/f0b4da56-be26-4c14-b0a1-dc1e854f0cba_Screenshot (1283).png</t>
+  </si>
+  <si>
+    <t>Tisa</t>
+  </si>
+  <si>
+    <t>Tuladhar</t>
+  </si>
+  <si>
+    <t>tisa.tuladhar@example.com</t>
+  </si>
+  <si>
+    <t>123 King's Way</t>
+  </si>
+  <si>
+    <t>9812343210</t>
+  </si>
+  <si>
+    <t>Screenshot 2024-11-26 210115.png</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/uploads/a3afcea8-1bef-407a-bdbb-b483e5e7f74b_Screenshot 2024-11-26 210115.png</t>
+  </si>
+  <si>
+    <t>fohn</t>
+  </si>
+  <si>
+    <t>joe</t>
+  </si>
+  <si>
+    <t>fohn.joe@example.com</t>
+  </si>
+  <si>
+    <t>123 Last St</t>
+  </si>
+  <si>
+    <t>9874321210</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Screenshot 2025-01-12 101346.png</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/uploads/ead5482e-3a8a-410b-a3b8-10c84e255773_Screenshot 2025-01-12 101346.png</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>updated@example.com</t>
+  </si>
+  <si>
+    <t>New Address</t>
+  </si>
+  <si>
+    <t>9998887776</t>
+  </si>
+  <si>
+    <t>Senior Developer</t>
+  </si>
+  <si>
+    <t>Screenshot 2025-02-26 224743.png</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/uploads/6d05a16b-9554-4776-94e3-6f661658726c_Screenshot 2025-02-26 224743.png</t>
+  </si>
+  <si>
+    <t>Slesha</t>
+  </si>
+  <si>
+    <t>Dahal</t>
+  </si>
+  <si>
+    <t>slesha.dahal@example.com</t>
+  </si>
+  <si>
+    <t>123 G-Kulo</t>
+  </si>
+  <si>
+    <t>UI/UX</t>
+  </si>
+  <si>
+    <t>Screenshot 2024-12-07 194903.png</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/uploads/647fbf8d-0bcb-4556-8c4d-6f30d420d92a_Screenshot 2024-12-07 194903.png</t>
+  </si>
+  <si>
+    <t>sfgfh</t>
+  </si>
+  <si>
+    <t>sbnm</t>
+  </si>
+  <si>
+    <t>sh@ghj.com</t>
   </si>
   <si>
     <t>hjgh</t>
   </si>
   <si>
-    <t>34567</t>
+    <t>1234567890</t>
   </si>
   <si>
     <t>cdfvgb</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>john.doe@example.com</t>
-  </si>
-  <si>
-    <t>123 Street, City</t>
-  </si>
-  <si>
-    <t>9876543210</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>Screenshot (1283).png</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/uploads/f0b4da56-be26-4c14-b0a1-dc1e854f0cba_Screenshot (1283).png</t>
-  </si>
-  <si>
-    <t>Tisa</t>
-  </si>
-  <si>
-    <t>Tuladhar</t>
-  </si>
-  <si>
-    <t>tisa.tuladhar@example.com</t>
-  </si>
-  <si>
-    <t>123 King's Way</t>
-  </si>
-  <si>
-    <t>9812343210</t>
-  </si>
-  <si>
-    <t>Screenshot 2024-11-26 210115.png</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/uploads/a3afcea8-1bef-407a-bdbb-b483e5e7f74b_Screenshot 2024-11-26 210115.png</t>
-  </si>
-  <si>
-    <t>fohn</t>
-  </si>
-  <si>
-    <t>joe</t>
-  </si>
-  <si>
-    <t>fohn.joe@example.com</t>
-  </si>
-  <si>
-    <t>123 Last St</t>
-  </si>
-  <si>
-    <t>9874321210</t>
-  </si>
-  <si>
-    <t>Developer</t>
-  </si>
-  <si>
-    <t>Screenshot 2025-01-12 101346.png</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/uploads/ead5482e-3a8a-410b-a3b8-10c84e255773_Screenshot 2025-01-12 101346.png</t>
-  </si>
-  <si>
-    <t>Updated</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>updated@example.com</t>
-  </si>
-  <si>
-    <t>New Address</t>
-  </si>
-  <si>
-    <t>9998887776</t>
-  </si>
-  <si>
-    <t>Senior Developer</t>
-  </si>
-  <si>
-    <t>Screenshot 2025-02-26 224743.png</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/uploads/6d05a16b-9554-4776-94e3-6f661658726c_Screenshot 2025-02-26 224743.png</t>
-  </si>
-  <si>
-    <t>Slesha</t>
-  </si>
-  <si>
-    <t>Dahal</t>
-  </si>
-  <si>
-    <t>slesha.dahal@example.com</t>
-  </si>
-  <si>
-    <t>123 G-Kulo</t>
-  </si>
-  <si>
-    <t>UI/UX</t>
-  </si>
-  <si>
-    <t>Screenshot 2024-12-07 194903.png</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/uploads/647fbf8d-0bcb-4556-8c4d-6f30d420d92a_Screenshot 2024-12-07 194903.png</t>
+    <t>Screenshot 2025-01-23 154043.png</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/uploads/1e1fa799-d563-4ed6-8d12-86246c698cff_Screenshot 2025-01-23 154043.png</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>vika</t>
+  </si>
+  <si>
+    <t>sh@gmail.com</t>
+  </si>
+  <si>
+    <t>b show</t>
+  </si>
+  <si>
+    <t>9872098234</t>
+  </si>
+  <si>
+    <t>intern</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/uploads/af5e34e5-67d0-4934-b88e-fea26c7f6893_Screenshot 2025-01-23 154043.png</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>shah@gmail.com</t>
+  </si>
+  <si>
+    <t>k show</t>
+  </si>
+  <si>
+    <t>9872091234</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/uploads/dd4778c7-e18f-4aae-9ae2-3cafc483e418_Screenshot 2025-01-23 154043.png</t>
+  </si>
+  <si>
+    <t>tessa</t>
+  </si>
+  <si>
+    <t>tula</t>
+  </si>
+  <si>
+    <t>tes@gmail.com</t>
+  </si>
+  <si>
+    <t>king's way</t>
+  </si>
+  <si>
+    <t>9841123456</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>Screenshot 2025-03-17 213111.png</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/uploads/81317f0b-4f7e-44ed-8eba-7a0f3a69e043_Screenshot 2025-03-17 213111.png</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>shah</t>
+  </si>
+  <si>
+    <t>a@gmail.com</t>
+  </si>
+  <si>
+    <t>9861445711</t>
+  </si>
+  <si>
+    <t>Screenshot 2025-02-20 111508.png</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/uploads/ce80100e-4d3f-458a-b4e8-016a4862bb46_Screenshot 2025-02-20 111508.png</t>
+  </si>
+  <si>
+    <t>fghj</t>
+  </si>
+  <si>
+    <t>dfghj</t>
+  </si>
+  <si>
+    <t>1234567892</t>
+  </si>
+  <si>
+    <t>dfnef</t>
+  </si>
+  <si>
+    <t>Screenshot (1322).png</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/uploads/a1748341-4bba-45d9-8f14-35ce0b3cab00_Screenshot (1322).png</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/uploads/dd540b2e-7817-4623-80f4-7f340ed0c5ec_Screenshot (1322).png</t>
+  </si>
+  <si>
+    <t>sdfghnj</t>
+  </si>
+  <si>
+    <t>dcfvgbhn</t>
+  </si>
+  <si>
+    <t>swd@gmail.com</t>
+  </si>
+  <si>
+    <t>fsgdbfcn</t>
+  </si>
+  <si>
+    <t>9182736451</t>
+  </si>
+  <si>
+    <t>sdfdgxfbgnc</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/uploads/5854efa3-e61d-44d9-9b32-961be1291445_Screenshot 2025-02-20 111508.png</t>
+  </si>
+  <si>
+    <t>mohan</t>
+  </si>
+  <si>
+    <t>khati</t>
+  </si>
+  <si>
+    <t>mh@ghj.com</t>
+  </si>
+  <si>
+    <t>9812345678</t>
+  </si>
+  <si>
+    <t>Screenshot 2025-02-05 163001.png</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/uploads/41af385b-08e4-4639-8dc5-9173597214ed_Screenshot 2025-02-05 163001.png</t>
+  </si>
+  <si>
+    <t>kul</t>
+  </si>
+  <si>
+    <t>paudel</t>
+  </si>
+  <si>
+    <t>kp@gmail.com</t>
+  </si>
+  <si>
+    <t>rato pul</t>
+  </si>
+  <si>
+    <t>9812763458</t>
+  </si>
+  <si>
+    <t>senior developer</t>
+  </si>
+  <si>
+    <t>Screenshot 2025-01-12 101546.png</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/uploads/28285477-0eab-401c-a605-5b4b8259dba7_Screenshot 2025-01-12 101546.png</t>
+  </si>
+  <si>
+    <t>ghjk</t>
+  </si>
+  <si>
+    <t>ghjkl</t>
+  </si>
+  <si>
+    <t>fghj@gmail.com</t>
+  </si>
+  <si>
+    <t>6789573874</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>Screenshot 2025-03-26 171546.png</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/uploads/0ba60650-41e5-4fe8-b3a0-8908389ddf10_Screenshot 2025-03-26 171546.png</t>
+  </si>
+  <si>
+    <t>iha</t>
+  </si>
+  <si>
+    <t>dahal</t>
+  </si>
+  <si>
+    <t>id@gmail.com</t>
+  </si>
+  <si>
+    <t>b town</t>
+  </si>
+  <si>
+    <t>CEOo</t>
+  </si>
+  <si>
+    <t>Screenshot 2024-10-07 201054.png</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/uploads/5edd43ee-a7b9-4319-8240-210980b05863_Screenshot 2024-10-07 201054.png</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>aa@gmail.com</t>
+  </si>
+  <si>
+    <t>Screenshot 2025-03-27 081429.png</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/uploads/10221698-39df-4fcd-ac55-82450557083d_Screenshot 2025-03-27 081429.png</t>
   </si>
 </sst>
 </file>
@@ -221,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -261,7 +489,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>10</v>
@@ -282,205 +510,589 @@
         <v>15</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>5678.0</v>
+        <v>70000.0</v>
       </c>
       <c r="I2" t="s" s="0">
         <v>16</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>75000.0</v>
+      </c>
+      <c r="I3" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="J3" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>70000.0</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>75000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>50000.0</v>
+        <v>705000.0</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>705000.0</v>
+        <v>195000.0</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>195000.0</v>
+        <v>80000.0</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>80000.0</v>
+        <v>25678.0</v>
       </c>
       <c r="I8" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>20000.0</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>200000.0</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>200000.0</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>12345.0</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>1234560.0</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>1234560.0</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>1.11111111E9</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="J8" t="s" s="0">
-        <v>54</v>
+      <c r="F16" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>5678.0</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>200000.0</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>785874.0</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>10000.0</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>2000000.0</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
